--- a/Data/EC/NIT-9012184861.xlsx
+++ b/Data/EC/NIT-9012184861.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E4C55952-EFD8-456D-A276-9C6931EBAAC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{64856199-6F1E-48CD-8275-D4BC39C4F963}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{CC86EE0C-A708-4CE8-B14D-AC1A95E5111F}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{0961E2FF-E255-4F2B-BE53-69B4A0F1E1DE}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="83">
   <si>
     <t>Tipo Doc Trabajador</t>
   </si>
@@ -65,6 +65,123 @@
     <t>CC</t>
   </si>
   <si>
+    <t>9099870</t>
+  </si>
+  <si>
+    <t>EDGAR ALEXANDER LUNA GAMARRA</t>
+  </si>
+  <si>
+    <t>2507</t>
+  </si>
+  <si>
+    <t>2506</t>
+  </si>
+  <si>
+    <t>73594372</t>
+  </si>
+  <si>
+    <t>MARCIAL MENDOZA GUZMAN</t>
+  </si>
+  <si>
+    <t>2504</t>
+  </si>
+  <si>
+    <t>73146765</t>
+  </si>
+  <si>
+    <t>LUIS MANUEL BAYUELO BARCASNEGRAS</t>
+  </si>
+  <si>
+    <t>8782751</t>
+  </si>
+  <si>
+    <t>JORGE EDWIN QUIJANO ANGULO</t>
+  </si>
+  <si>
+    <t>1043315516</t>
+  </si>
+  <si>
+    <t>MARIS DEL CARMEN LISTA ALFONZO</t>
+  </si>
+  <si>
+    <t>23115755</t>
+  </si>
+  <si>
+    <t>YELKIS MARIA AYOLA MORALES</t>
+  </si>
+  <si>
+    <t>1051889291</t>
+  </si>
+  <si>
+    <t>LUIS ANGEL VEGA MORELO</t>
+  </si>
+  <si>
+    <t>1047465037</t>
+  </si>
+  <si>
+    <t>GIAN FRANCO CARABALLO BATISTA</t>
+  </si>
+  <si>
+    <t>2309</t>
+  </si>
+  <si>
+    <t>1143372761</t>
+  </si>
+  <si>
+    <t>SAMIR ANTONIO ARIAS BENAVIDES</t>
+  </si>
+  <si>
+    <t>73214360</t>
+  </si>
+  <si>
+    <t>VICTOR ALFONSO DE LA ROSA CARDALES</t>
+  </si>
+  <si>
+    <t>1143356378</t>
+  </si>
+  <si>
+    <t>JOSELIN GASTELBONDO SANCHEZ</t>
+  </si>
+  <si>
+    <t>1051889141</t>
+  </si>
+  <si>
+    <t>EDWIN CALDERON CANTILLO</t>
+  </si>
+  <si>
+    <t>1143370879</t>
+  </si>
+  <si>
+    <t>SERGIO ANDRES QUINTERO GONZALEZ</t>
+  </si>
+  <si>
+    <t>1047413472</t>
+  </si>
+  <si>
+    <t>CAMILO ANDRES RODRIGUEZ JEREZ</t>
+  </si>
+  <si>
+    <t>1049824528</t>
+  </si>
+  <si>
+    <t>JORGE LUIS PALACIO BATISTA</t>
+  </si>
+  <si>
+    <t>1143347259</t>
+  </si>
+  <si>
+    <t>YIRA MARIA CRISMATT CAMPILLO</t>
+  </si>
+  <si>
+    <t>1007130826</t>
+  </si>
+  <si>
+    <t>CARLOS JOSE OCON ZUÑIGA</t>
+  </si>
+  <si>
+    <t>2505</t>
+  </si>
+  <si>
     <t>1047394572</t>
   </si>
   <si>
@@ -74,6 +191,12 @@
     <t>1903</t>
   </si>
   <si>
+    <t>1049827467</t>
+  </si>
+  <si>
+    <t>CARLOS EDUARDO MALLARINO MARRUGO</t>
+  </si>
+  <si>
     <t>1143411056</t>
   </si>
   <si>
@@ -83,73 +206,52 @@
     <t>2109</t>
   </si>
   <si>
-    <t>1047465037</t>
-  </si>
-  <si>
-    <t>GIAN FRANCO CARABALLO BATISTA</t>
-  </si>
-  <si>
-    <t>2309</t>
-  </si>
-  <si>
-    <t>73214360</t>
-  </si>
-  <si>
-    <t>VICTOR ALFONSO DE LA ROSA CARDALES</t>
-  </si>
-  <si>
-    <t>2506</t>
-  </si>
-  <si>
-    <t>1143372761</t>
-  </si>
-  <si>
-    <t>SAMIR ANTONIO ARIAS BENAVIDES</t>
-  </si>
-  <si>
-    <t>1143356378</t>
-  </si>
-  <si>
-    <t>JOSELIN GASTELBONDO SANCHEZ</t>
-  </si>
-  <si>
-    <t>1051889141</t>
-  </si>
-  <si>
-    <t>EDWIN CALDERON CANTILLO</t>
+    <t>CE</t>
+  </si>
+  <si>
+    <t>1131443</t>
+  </si>
+  <si>
+    <t>YUCDDALYTH ELVIRA BATISTA BARRIOS</t>
+  </si>
+  <si>
+    <t>9095923</t>
+  </si>
+  <si>
+    <t>MANUEL ESTEBAN MARQUEZ VILLAR</t>
+  </si>
+  <si>
+    <t>1049536679</t>
+  </si>
+  <si>
+    <t>LUIS EDUARDO SALGADO TORRES</t>
+  </si>
+  <si>
+    <t>3820699</t>
+  </si>
+  <si>
+    <t>YASMIN DEL VALLE GONZALEZ DE OMAÑA</t>
+  </si>
+  <si>
+    <t>PPT</t>
+  </si>
+  <si>
+    <t>7260642</t>
+  </si>
+  <si>
+    <t>FATIMA DEL VALLE TORRES RODRIGUEZ</t>
+  </si>
+  <si>
+    <t>1043637813</t>
+  </si>
+  <si>
+    <t>JHONNY JOSE BARBOZA ORTEGA</t>
   </si>
   <si>
     <t>1042578870</t>
   </si>
   <si>
     <t>JERONIMO ACOSTA SARDI</t>
-  </si>
-  <si>
-    <t>1043315516</t>
-  </si>
-  <si>
-    <t>MARIS DEL CARMEN LISTA ALFONZO</t>
-  </si>
-  <si>
-    <t>1047413472</t>
-  </si>
-  <si>
-    <t>CAMILO ANDRES RODRIGUEZ JEREZ</t>
-  </si>
-  <si>
-    <t>CE</t>
-  </si>
-  <si>
-    <t>1131443</t>
-  </si>
-  <si>
-    <t>YUCDDALYTH ELVIRA BATISTA BARRIOS</t>
-  </si>
-  <si>
-    <t>1143347259</t>
-  </si>
-  <si>
-    <t>YIRA MARIA CRISMATT CAMPILLO</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -193,7 +295,7 @@
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_-&quot;$&quot;\ * #,##0_-;\-&quot;$&quot;\ * #,##0_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -563,7 +665,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C98ED7CD-470E-D1B0-5515-3B9A40D2F444}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ECC574AF-BBE7-1728-3255-79FCBCA36F3B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -914,32 +1016,32 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9EA71CAD-CDFD-461C-A7C8-46DA4EA3909A}">
-  <dimension ref="B2:J33"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CA062F2-2A76-4432-93DF-E1336B183FF2}">
+  <dimension ref="B2:J66"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:J5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="3.6328125" customWidth="1"/>
-    <col min="2" max="2" width="16.90625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="38.6328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.7265625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.7265625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="38.81640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.54296875" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.1796875" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.90625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.81640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.1796875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.36328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.36328125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.08984375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10">
+    <row r="2" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B2" s="3"/>
       <c r="C2" s="28"/>
       <c r="D2" s="29" t="s">
-        <v>38</v>
+        <v>72</v>
       </c>
       <c r="E2" s="29"/>
       <c r="F2" s="29"/>
@@ -948,7 +1050,7 @@
       <c r="I2" s="29"/>
       <c r="J2" s="29"/>
     </row>
-    <row r="3" spans="2:10">
+    <row r="3" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B3" s="3"/>
       <c r="C3" s="28"/>
       <c r="D3" s="30"/>
@@ -959,7 +1061,7 @@
       <c r="I3" s="30"/>
       <c r="J3" s="30"/>
     </row>
-    <row r="4" spans="2:10">
+    <row r="4" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B4" s="3"/>
       <c r="C4" s="28"/>
       <c r="D4" s="30"/>
@@ -970,7 +1072,7 @@
       <c r="I4" s="30"/>
       <c r="J4" s="30"/>
     </row>
-    <row r="5" spans="2:10">
+    <row r="5" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B5" s="3"/>
       <c r="C5" s="28"/>
       <c r="D5" s="31"/>
@@ -981,10 +1083,10 @@
       <c r="I5" s="31"/>
       <c r="J5" s="31"/>
     </row>
-    <row r="6" spans="2:10" ht="9" customHeight="1"/>
-    <row r="7" spans="2:10">
+    <row r="6" spans="2:10" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="7" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B7" s="4" t="s">
-        <v>39</v>
+        <v>73</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="27"/>
@@ -997,8 +1099,8 @@
       <c r="I7" s="6"/>
       <c r="J7" s="6"/>
     </row>
-    <row r="8" spans="2:10" ht="7.5" customHeight="1"/>
-    <row r="9" spans="2:10">
+    <row r="8" spans="2:10" ht="7.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="9" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B9" s="4" t="s">
         <v>6</v>
       </c>
@@ -1013,15 +1115,15 @@
       <c r="I9" s="6"/>
       <c r="J9" s="6"/>
     </row>
-    <row r="10" spans="2:10" ht="6.75" customHeight="1"/>
-    <row r="11" spans="2:10">
+    <row r="10" spans="2:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="11" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B11" s="4" t="s">
-        <v>40</v>
+        <v>74</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="27"/>
       <c r="E11" s="7">
-        <v>1119087</v>
+        <v>4423527</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
@@ -1029,27 +1131,27 @@
       <c r="I11" s="7"/>
       <c r="J11" s="7"/>
     </row>
-    <row r="12" spans="2:10" ht="4.5" customHeight="1"/>
-    <row r="13" spans="2:10">
+    <row r="12" spans="2:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="13" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B13" s="9" t="s">
-        <v>41</v>
+        <v>75</v>
       </c>
       <c r="C13" s="5">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="8" t="s">
-        <v>42</v>
+        <v>76</v>
       </c>
       <c r="F13" s="5">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
       <c r="I13" s="5"/>
       <c r="J13" s="5"/>
     </row>
-    <row r="15" spans="2:10">
+    <row r="15" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B15" s="10" t="s">
         <v>0</v>
       </c>
@@ -1069,16 +1171,16 @@
         <v>5</v>
       </c>
       <c r="H15" s="13" t="s">
-        <v>44</v>
+        <v>78</v>
       </c>
       <c r="I15" s="13" t="s">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="J15" s="14" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="16" spans="2:10">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="16" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B16" s="15" t="s">
         <v>8</v>
       </c>
@@ -1092,168 +1194,168 @@
         <v>11</v>
       </c>
       <c r="F16" s="18">
-        <v>1133</v>
+        <v>87200</v>
       </c>
       <c r="G16" s="18">
-        <v>960000</v>
+        <v>2600000</v>
       </c>
       <c r="H16" s="19"/>
       <c r="I16" s="19"/>
       <c r="J16" s="20"/>
     </row>
-    <row r="17" spans="2:10">
+    <row r="17" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B17" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C17" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D17" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E17" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="E17" s="16" t="s">
-        <v>14</v>
-      </c>
       <c r="F17" s="18">
-        <v>2000</v>
+        <v>87200</v>
       </c>
       <c r="G17" s="18">
-        <v>1500000</v>
+        <v>2600000</v>
       </c>
       <c r="H17" s="19"/>
       <c r="I17" s="19"/>
       <c r="J17" s="20"/>
     </row>
-    <row r="18" spans="2:10">
+    <row r="18" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B18" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C18" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="D18" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="E18" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="D18" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="E18" s="16" t="s">
-        <v>17</v>
-      </c>
       <c r="F18" s="18">
-        <v>20347</v>
+        <v>56940</v>
       </c>
       <c r="G18" s="18">
-        <v>2180000</v>
+        <v>1423500</v>
       </c>
       <c r="H18" s="19"/>
       <c r="I18" s="19"/>
       <c r="J18" s="20"/>
     </row>
-    <row r="19" spans="2:10">
+    <row r="19" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B19" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D19" s="17" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E19" s="16" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="F19" s="18">
-        <v>56940</v>
+        <v>136000</v>
       </c>
       <c r="G19" s="18">
-        <v>1423500</v>
+        <v>3400000</v>
       </c>
       <c r="H19" s="19"/>
       <c r="I19" s="19"/>
       <c r="J19" s="20"/>
     </row>
-    <row r="20" spans="2:10">
+    <row r="20" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B20" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D20" s="17" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="E20" s="16" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="F20" s="18">
-        <v>80000</v>
+        <v>136000</v>
       </c>
       <c r="G20" s="18">
-        <v>4000000</v>
+        <v>3400000</v>
       </c>
       <c r="H20" s="19"/>
       <c r="I20" s="19"/>
       <c r="J20" s="20"/>
     </row>
-    <row r="21" spans="2:10">
+    <row r="21" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B21" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D21" s="17" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="E21" s="16" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="F21" s="18">
-        <v>64000</v>
+        <v>128000</v>
       </c>
       <c r="G21" s="18">
-        <v>1600000</v>
+        <v>3200000</v>
       </c>
       <c r="H21" s="19"/>
       <c r="I21" s="19"/>
       <c r="J21" s="20"/>
     </row>
-    <row r="22" spans="2:10">
+    <row r="22" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B22" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="D22" s="17" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="F22" s="18">
-        <v>120000</v>
+        <v>128000</v>
       </c>
       <c r="G22" s="18">
-        <v>3000000</v>
+        <v>3200000</v>
       </c>
       <c r="H22" s="19"/>
       <c r="I22" s="19"/>
       <c r="J22" s="20"/>
     </row>
-    <row r="23" spans="2:10">
+    <row r="23" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B23" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="D23" s="17" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="F23" s="18">
-        <v>18667</v>
+        <v>80000</v>
       </c>
       <c r="G23" s="18">
         <v>2000000</v>
@@ -1262,18 +1364,18 @@
       <c r="I23" s="19"/>
       <c r="J23" s="20"/>
     </row>
-    <row r="24" spans="2:10">
+    <row r="24" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B24" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="D24" s="17" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="F24" s="18">
         <v>80000</v>
@@ -1285,103 +1387,862 @@
       <c r="I24" s="19"/>
       <c r="J24" s="20"/>
     </row>
-    <row r="25" spans="2:10">
+    <row r="25" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B25" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="D25" s="17" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="F25" s="18">
-        <v>360000</v>
+        <v>60000</v>
       </c>
       <c r="G25" s="18">
-        <v>9000000</v>
+        <v>828116</v>
       </c>
       <c r="H25" s="19"/>
       <c r="I25" s="19"/>
       <c r="J25" s="20"/>
     </row>
-    <row r="26" spans="2:10">
+    <row r="26" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B26" s="15" t="s">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="D26" s="17" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="E26" s="16" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="F26" s="18">
-        <v>116000</v>
+        <v>60000</v>
       </c>
       <c r="G26" s="18">
-        <v>2900000</v>
+        <v>828116</v>
       </c>
       <c r="H26" s="19"/>
       <c r="I26" s="19"/>
       <c r="J26" s="20"/>
     </row>
-    <row r="27" spans="2:10">
-      <c r="B27" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="C27" s="22" t="s">
+    <row r="27" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B27" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C27" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D27" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="E27" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="F27" s="18">
+        <v>120000</v>
+      </c>
+      <c r="G27" s="18">
+        <v>3000000</v>
+      </c>
+      <c r="H27" s="19"/>
+      <c r="I27" s="19"/>
+      <c r="J27" s="20"/>
+    </row>
+    <row r="28" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B28" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C28" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D28" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="E28" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="F28" s="18">
+        <v>120000</v>
+      </c>
+      <c r="G28" s="18">
+        <v>3000000</v>
+      </c>
+      <c r="H28" s="19"/>
+      <c r="I28" s="19"/>
+      <c r="J28" s="20"/>
+    </row>
+    <row r="29" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B29" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C29" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D29" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="E29" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="F29" s="18">
+        <v>20347</v>
+      </c>
+      <c r="G29" s="18">
+        <v>2180000</v>
+      </c>
+      <c r="H29" s="19"/>
+      <c r="I29" s="19"/>
+      <c r="J29" s="20"/>
+    </row>
+    <row r="30" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B30" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C30" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="D30" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="E30" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="F30" s="18">
+        <v>160000</v>
+      </c>
+      <c r="G30" s="18">
+        <v>1092000</v>
+      </c>
+      <c r="H30" s="19"/>
+      <c r="I30" s="19"/>
+      <c r="J30" s="20"/>
+    </row>
+    <row r="31" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B31" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C31" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="D31" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="E31" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="F31" s="18">
+        <v>80000</v>
+      </c>
+      <c r="G31" s="18">
+        <v>1092000</v>
+      </c>
+      <c r="H31" s="19"/>
+      <c r="I31" s="19"/>
+      <c r="J31" s="20"/>
+    </row>
+    <row r="32" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B32" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C32" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="D32" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="E32" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="F32" s="18">
+        <v>56940</v>
+      </c>
+      <c r="G32" s="18">
+        <v>1423500</v>
+      </c>
+      <c r="H32" s="19"/>
+      <c r="I32" s="19"/>
+      <c r="J32" s="20"/>
+    </row>
+    <row r="33" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B33" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C33" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="D33" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="E33" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="F33" s="18">
+        <v>56940</v>
+      </c>
+      <c r="G33" s="18">
+        <v>1423500</v>
+      </c>
+      <c r="H33" s="19"/>
+      <c r="I33" s="19"/>
+      <c r="J33" s="20"/>
+    </row>
+    <row r="34" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B34" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C34" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="D34" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="E34" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="F34" s="18">
+        <v>64000</v>
+      </c>
+      <c r="G34" s="18">
+        <v>1600000</v>
+      </c>
+      <c r="H34" s="19"/>
+      <c r="I34" s="19"/>
+      <c r="J34" s="20"/>
+    </row>
+    <row r="35" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B35" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C35" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="D35" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="E35" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="F35" s="18">
+        <v>64000</v>
+      </c>
+      <c r="G35" s="18">
+        <v>1600000</v>
+      </c>
+      <c r="H35" s="19"/>
+      <c r="I35" s="19"/>
+      <c r="J35" s="20"/>
+    </row>
+    <row r="36" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B36" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C36" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="D36" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="D27" s="23" t="s">
+      <c r="E36" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="F36" s="18">
+        <v>120000</v>
+      </c>
+      <c r="G36" s="18">
+        <v>3000000</v>
+      </c>
+      <c r="H36" s="19"/>
+      <c r="I36" s="19"/>
+      <c r="J36" s="20"/>
+    </row>
+    <row r="37" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B37" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C37" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="D37" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="E37" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="F37" s="18">
+        <v>120000</v>
+      </c>
+      <c r="G37" s="18">
+        <v>3000000</v>
+      </c>
+      <c r="H37" s="19"/>
+      <c r="I37" s="19"/>
+      <c r="J37" s="20"/>
+    </row>
+    <row r="38" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B38" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C38" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="E27" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="F27" s="24">
+      <c r="D38" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="E38" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="F38" s="18">
+        <v>52800</v>
+      </c>
+      <c r="G38" s="18">
+        <v>1300000</v>
+      </c>
+      <c r="H38" s="19"/>
+      <c r="I38" s="19"/>
+      <c r="J38" s="20"/>
+    </row>
+    <row r="39" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B39" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C39" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="D39" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="E39" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="F39" s="18">
+        <v>144000</v>
+      </c>
+      <c r="G39" s="18">
+        <v>1300000</v>
+      </c>
+      <c r="H39" s="19"/>
+      <c r="I39" s="19"/>
+      <c r="J39" s="20"/>
+    </row>
+    <row r="40" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B40" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C40" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="D40" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="E40" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="F40" s="18">
+        <v>360000</v>
+      </c>
+      <c r="G40" s="18">
+        <v>9000000</v>
+      </c>
+      <c r="H40" s="19"/>
+      <c r="I40" s="19"/>
+      <c r="J40" s="20"/>
+    </row>
+    <row r="41" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B41" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C41" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="D41" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="E41" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="F41" s="18">
+        <v>360000</v>
+      </c>
+      <c r="G41" s="18">
+        <v>9000000</v>
+      </c>
+      <c r="H41" s="19"/>
+      <c r="I41" s="19"/>
+      <c r="J41" s="20"/>
+    </row>
+    <row r="42" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B42" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C42" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="D42" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="E42" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="F42" s="18">
+        <v>63600</v>
+      </c>
+      <c r="G42" s="18">
+        <v>1590000</v>
+      </c>
+      <c r="H42" s="19"/>
+      <c r="I42" s="19"/>
+      <c r="J42" s="20"/>
+    </row>
+    <row r="43" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B43" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C43" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="D43" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="E43" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="F43" s="18">
         <v>200000</v>
       </c>
-      <c r="G27" s="24">
+      <c r="G43" s="18">
         <v>5000000</v>
       </c>
-      <c r="H27" s="25"/>
-      <c r="I27" s="25"/>
-      <c r="J27" s="26"/>
-    </row>
-    <row r="32" spans="2:10">
-      <c r="B32" s="32" t="s">
+      <c r="H43" s="19"/>
+      <c r="I43" s="19"/>
+      <c r="J43" s="20"/>
+    </row>
+    <row r="44" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B44" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C44" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="D44" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="E44" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="F44" s="18">
+        <v>200000</v>
+      </c>
+      <c r="G44" s="18">
+        <v>5000000</v>
+      </c>
+      <c r="H44" s="19"/>
+      <c r="I44" s="19"/>
+      <c r="J44" s="20"/>
+    </row>
+    <row r="45" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B45" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C45" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="D45" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="E45" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="C32" s="32"/>
-      <c r="H32" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="I32" s="1"/>
-      <c r="J32" s="1"/>
-    </row>
-    <row r="33" spans="2:10">
-      <c r="B33" s="32" t="s">
-        <v>46</v>
-      </c>
-      <c r="C33" s="32"/>
-      <c r="H33" s="1" t="s">
+      <c r="F45" s="18">
+        <v>76400</v>
+      </c>
+      <c r="G45" s="18">
+        <v>1910000</v>
+      </c>
+      <c r="H45" s="19"/>
+      <c r="I45" s="19"/>
+      <c r="J45" s="20"/>
+    </row>
+    <row r="46" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B46" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C46" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="I33" s="1"/>
-      <c r="J33" s="1"/>
+      <c r="D46" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="E46" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="F46" s="18">
+        <v>1133</v>
+      </c>
+      <c r="G46" s="18">
+        <v>960000</v>
+      </c>
+      <c r="H46" s="19"/>
+      <c r="I46" s="19"/>
+      <c r="J46" s="20"/>
+    </row>
+    <row r="47" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B47" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C47" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="D47" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="E47" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="F47" s="18">
+        <v>56940</v>
+      </c>
+      <c r="G47" s="18">
+        <v>1423500</v>
+      </c>
+      <c r="H47" s="19"/>
+      <c r="I47" s="19"/>
+      <c r="J47" s="20"/>
+    </row>
+    <row r="48" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B48" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C48" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="D48" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="E48" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="F48" s="18">
+        <v>2000</v>
+      </c>
+      <c r="G48" s="18">
+        <v>1500000</v>
+      </c>
+      <c r="H48" s="19"/>
+      <c r="I48" s="19"/>
+      <c r="J48" s="20"/>
+    </row>
+    <row r="49" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B49" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="C49" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="D49" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="E49" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="F49" s="18">
+        <v>116000</v>
+      </c>
+      <c r="G49" s="18">
+        <v>2900000</v>
+      </c>
+      <c r="H49" s="19"/>
+      <c r="I49" s="19"/>
+      <c r="J49" s="20"/>
+    </row>
+    <row r="50" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B50" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="C50" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="D50" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="E50" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="F50" s="18">
+        <v>116000</v>
+      </c>
+      <c r="G50" s="18">
+        <v>2900000</v>
+      </c>
+      <c r="H50" s="19"/>
+      <c r="I50" s="19"/>
+      <c r="J50" s="20"/>
+    </row>
+    <row r="51" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B51" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C51" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="D51" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="E51" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="F51" s="18">
+        <v>56940</v>
+      </c>
+      <c r="G51" s="18">
+        <v>905000</v>
+      </c>
+      <c r="H51" s="19"/>
+      <c r="I51" s="19"/>
+      <c r="J51" s="20"/>
+    </row>
+    <row r="52" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B52" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C52" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="D52" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="E52" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="F52" s="18">
+        <v>56940</v>
+      </c>
+      <c r="G52" s="18">
+        <v>905000</v>
+      </c>
+      <c r="H52" s="19"/>
+      <c r="I52" s="19"/>
+      <c r="J52" s="20"/>
+    </row>
+    <row r="53" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B53" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C53" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="D53" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="E53" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="F53" s="18">
+        <v>63600</v>
+      </c>
+      <c r="G53" s="18">
+        <v>1590000</v>
+      </c>
+      <c r="H53" s="19"/>
+      <c r="I53" s="19"/>
+      <c r="J53" s="20"/>
+    </row>
+    <row r="54" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B54" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="C54" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="D54" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="E54" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="F54" s="18">
+        <v>80000</v>
+      </c>
+      <c r="G54" s="18">
+        <v>2000000</v>
+      </c>
+      <c r="H54" s="19"/>
+      <c r="I54" s="19"/>
+      <c r="J54" s="20"/>
+    </row>
+    <row r="55" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B55" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="C55" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="D55" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="E55" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="F55" s="18">
+        <v>80000</v>
+      </c>
+      <c r="G55" s="18">
+        <v>2000000</v>
+      </c>
+      <c r="H55" s="19"/>
+      <c r="I55" s="19"/>
+      <c r="J55" s="20"/>
+    </row>
+    <row r="56" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B56" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="C56" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="D56" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="E56" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="F56" s="18">
+        <v>80000</v>
+      </c>
+      <c r="G56" s="18">
+        <v>2000000</v>
+      </c>
+      <c r="H56" s="19"/>
+      <c r="I56" s="19"/>
+      <c r="J56" s="20"/>
+    </row>
+    <row r="57" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B57" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="C57" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="D57" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="E57" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="F57" s="18">
+        <v>80000</v>
+      </c>
+      <c r="G57" s="18">
+        <v>2000000</v>
+      </c>
+      <c r="H57" s="19"/>
+      <c r="I57" s="19"/>
+      <c r="J57" s="20"/>
+    </row>
+    <row r="58" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B58" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C58" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="D58" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="E58" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="F58" s="18">
+        <v>56940</v>
+      </c>
+      <c r="G58" s="18">
+        <v>1423500</v>
+      </c>
+      <c r="H58" s="19"/>
+      <c r="I58" s="19"/>
+      <c r="J58" s="20"/>
+    </row>
+    <row r="59" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B59" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C59" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="D59" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="E59" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="F59" s="18">
+        <v>80000</v>
+      </c>
+      <c r="G59" s="18">
+        <v>2000000</v>
+      </c>
+      <c r="H59" s="19"/>
+      <c r="I59" s="19"/>
+      <c r="J59" s="20"/>
+    </row>
+    <row r="60" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B60" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C60" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="D60" s="23" t="s">
+        <v>71</v>
+      </c>
+      <c r="E60" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="F60" s="24">
+        <v>18667</v>
+      </c>
+      <c r="G60" s="24">
+        <v>2000000</v>
+      </c>
+      <c r="H60" s="25"/>
+      <c r="I60" s="25"/>
+      <c r="J60" s="26"/>
+    </row>
+    <row r="65" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B65" s="32" t="s">
+        <v>81</v>
+      </c>
+      <c r="C65" s="32"/>
+      <c r="H65" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="I65" s="1"/>
+      <c r="J65" s="1"/>
+    </row>
+    <row r="66" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B66" s="32" t="s">
+        <v>80</v>
+      </c>
+      <c r="C66" s="32"/>
+      <c r="H66" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="I66" s="1"/>
+      <c r="J66" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="H33:J33"/>
-    <mergeCell ref="H32:J32"/>
+    <mergeCell ref="B66:C66"/>
+    <mergeCell ref="B65:C65"/>
+    <mergeCell ref="H66:J66"/>
+    <mergeCell ref="H65:J65"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="D2:J5"/>

--- a/Data/EC/NIT-9012184861.xlsx
+++ b/Data/EC/NIT-9012184861.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{64856199-6F1E-48CD-8275-D4BC39C4F963}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E12EEB91-7F1C-4285-AA5C-01A178BF3CF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{0961E2FF-E255-4F2B-BE53-69B4A0F1E1DE}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{07D3B695-5B4A-41B9-93C5-F6D8FF7F6049}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="51">
   <si>
     <t>Tipo Doc Trabajador</t>
   </si>
@@ -65,37 +65,40 @@
     <t>CC</t>
   </si>
   <si>
-    <t>9099870</t>
-  </si>
-  <si>
-    <t>EDGAR ALEXANDER LUNA GAMARRA</t>
-  </si>
-  <si>
-    <t>2507</t>
-  </si>
-  <si>
-    <t>2506</t>
-  </si>
-  <si>
-    <t>73594372</t>
-  </si>
-  <si>
-    <t>MARCIAL MENDOZA GUZMAN</t>
-  </si>
-  <si>
-    <t>2504</t>
-  </si>
-  <si>
-    <t>73146765</t>
-  </si>
-  <si>
-    <t>LUIS MANUEL BAYUELO BARCASNEGRAS</t>
-  </si>
-  <si>
-    <t>8782751</t>
-  </si>
-  <si>
-    <t>JORGE EDWIN QUIJANO ANGULO</t>
+    <t>1047394572</t>
+  </si>
+  <si>
+    <t>ALFONSO RAFAEL RODRIGUEZ ARROYO</t>
+  </si>
+  <si>
+    <t>1903</t>
+  </si>
+  <si>
+    <t>1143411056</t>
+  </si>
+  <si>
+    <t>BRENDA PATRICIA DEVOZ BARRIOS</t>
+  </si>
+  <si>
+    <t>2109</t>
+  </si>
+  <si>
+    <t>1047465037</t>
+  </si>
+  <si>
+    <t>GIAN FRANCO CARABALLO BATISTA</t>
+  </si>
+  <si>
+    <t>2309</t>
+  </si>
+  <si>
+    <t>1042580026</t>
+  </si>
+  <si>
+    <t>CAMILO ANDRES CASTRO AYOLA</t>
+  </si>
+  <si>
+    <t>2508</t>
   </si>
   <si>
     <t>1043315516</t>
@@ -104,27 +107,6 @@
     <t>MARIS DEL CARMEN LISTA ALFONZO</t>
   </si>
   <si>
-    <t>23115755</t>
-  </si>
-  <si>
-    <t>YELKIS MARIA AYOLA MORALES</t>
-  </si>
-  <si>
-    <t>1051889291</t>
-  </si>
-  <si>
-    <t>LUIS ANGEL VEGA MORELO</t>
-  </si>
-  <si>
-    <t>1047465037</t>
-  </si>
-  <si>
-    <t>GIAN FRANCO CARABALLO BATISTA</t>
-  </si>
-  <si>
-    <t>2309</t>
-  </si>
-  <si>
     <t>1143372761</t>
   </si>
   <si>
@@ -149,63 +131,18 @@
     <t>EDWIN CALDERON CANTILLO</t>
   </si>
   <si>
-    <t>1143370879</t>
-  </si>
-  <si>
-    <t>SERGIO ANDRES QUINTERO GONZALEZ</t>
-  </si>
-  <si>
     <t>1047413472</t>
   </si>
   <si>
     <t>CAMILO ANDRES RODRIGUEZ JEREZ</t>
   </si>
   <si>
-    <t>1049824528</t>
-  </si>
-  <si>
-    <t>JORGE LUIS PALACIO BATISTA</t>
-  </si>
-  <si>
     <t>1143347259</t>
   </si>
   <si>
     <t>YIRA MARIA CRISMATT CAMPILLO</t>
   </si>
   <si>
-    <t>1007130826</t>
-  </si>
-  <si>
-    <t>CARLOS JOSE OCON ZUÑIGA</t>
-  </si>
-  <si>
-    <t>2505</t>
-  </si>
-  <si>
-    <t>1047394572</t>
-  </si>
-  <si>
-    <t>ALFONSO RAFAEL RODRIGUEZ ARROYO</t>
-  </si>
-  <si>
-    <t>1903</t>
-  </si>
-  <si>
-    <t>1049827467</t>
-  </si>
-  <si>
-    <t>CARLOS EDUARDO MALLARINO MARRUGO</t>
-  </si>
-  <si>
-    <t>1143411056</t>
-  </si>
-  <si>
-    <t>BRENDA PATRICIA DEVOZ BARRIOS</t>
-  </si>
-  <si>
-    <t>2109</t>
-  </si>
-  <si>
     <t>CE</t>
   </si>
   <si>
@@ -213,39 +150,6 @@
   </si>
   <si>
     <t>YUCDDALYTH ELVIRA BATISTA BARRIOS</t>
-  </si>
-  <si>
-    <t>9095923</t>
-  </si>
-  <si>
-    <t>MANUEL ESTEBAN MARQUEZ VILLAR</t>
-  </si>
-  <si>
-    <t>1049536679</t>
-  </si>
-  <si>
-    <t>LUIS EDUARDO SALGADO TORRES</t>
-  </si>
-  <si>
-    <t>3820699</t>
-  </si>
-  <si>
-    <t>YASMIN DEL VALLE GONZALEZ DE OMAÑA</t>
-  </si>
-  <si>
-    <t>PPT</t>
-  </si>
-  <si>
-    <t>7260642</t>
-  </si>
-  <si>
-    <t>FATIMA DEL VALLE TORRES RODRIGUEZ</t>
-  </si>
-  <si>
-    <t>1043637813</t>
-  </si>
-  <si>
-    <t>JHONNY JOSE BARBOZA ORTEGA</t>
   </si>
   <si>
     <t>1042578870</t>
@@ -350,7 +254,9 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -363,9 +269,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -565,23 +469,23 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -609,10 +513,10 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -665,7 +569,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ECC574AF-BBE7-1728-3255-79FCBCA36F3B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1F06D2A-B7A0-9A95-C296-3F4A4B30A9D3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1016,8 +920,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CA062F2-2A76-4432-93DF-E1336B183FF2}">
-  <dimension ref="B2:J66"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B58FDE6D-3C33-4866-942B-31C30F0AF32D}">
+  <dimension ref="B2:J34"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:J5"/>
@@ -1028,7 +932,7 @@
     <col min="1" max="1" width="3.6328125" customWidth="1"/>
     <col min="2" max="2" width="18.54296875" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.7265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="38.81640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="38.6328125" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.54296875" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.1796875" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14.36328125" style="2" bestFit="1" customWidth="1"/>
@@ -1041,7 +945,7 @@
       <c r="B2" s="3"/>
       <c r="C2" s="28"/>
       <c r="D2" s="29" t="s">
-        <v>72</v>
+        <v>40</v>
       </c>
       <c r="E2" s="29"/>
       <c r="F2" s="29"/>
@@ -1086,7 +990,7 @@
     <row r="6" spans="2:10" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="7" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B7" s="4" t="s">
-        <v>73</v>
+        <v>41</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="27"/>
@@ -1118,12 +1022,12 @@
     <row r="10" spans="2:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="11" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B11" s="4" t="s">
-        <v>74</v>
+        <v>42</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="27"/>
       <c r="E11" s="7">
-        <v>4423527</v>
+        <v>1245142</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
@@ -1134,17 +1038,17 @@
     <row r="12" spans="2:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="13" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B13" s="9" t="s">
-        <v>75</v>
+        <v>43</v>
       </c>
       <c r="C13" s="5">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="8" t="s">
-        <v>76</v>
+        <v>44</v>
       </c>
       <c r="F13" s="5">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
@@ -1171,13 +1075,13 @@
         <v>5</v>
       </c>
       <c r="H15" s="13" t="s">
-        <v>78</v>
+        <v>46</v>
       </c>
       <c r="I15" s="13" t="s">
-        <v>77</v>
+        <v>45</v>
       </c>
       <c r="J15" s="14" t="s">
-        <v>79</v>
+        <v>47</v>
       </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.35">
@@ -1194,10 +1098,10 @@
         <v>11</v>
       </c>
       <c r="F16" s="18">
-        <v>87200</v>
+        <v>1133</v>
       </c>
       <c r="G16" s="18">
-        <v>2600000</v>
+        <v>960000</v>
       </c>
       <c r="H16" s="19"/>
       <c r="I16" s="19"/>
@@ -1208,19 +1112,19 @@
         <v>8</v>
       </c>
       <c r="C17" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D17" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E17" s="16" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F17" s="18">
-        <v>87200</v>
+        <v>2000</v>
       </c>
       <c r="G17" s="18">
-        <v>2600000</v>
+        <v>1500000</v>
       </c>
       <c r="H17" s="19"/>
       <c r="I17" s="19"/>
@@ -1231,19 +1135,19 @@
         <v>8</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D18" s="17" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E18" s="16" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F18" s="18">
-        <v>56940</v>
+        <v>20347</v>
       </c>
       <c r="G18" s="18">
-        <v>1423500</v>
+        <v>2180000</v>
       </c>
       <c r="H18" s="19"/>
       <c r="I18" s="19"/>
@@ -1254,19 +1158,19 @@
         <v>8</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D19" s="17" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E19" s="16" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="F19" s="18">
-        <v>136000</v>
+        <v>11388</v>
       </c>
       <c r="G19" s="18">
-        <v>3400000</v>
+        <v>1423500</v>
       </c>
       <c r="H19" s="19"/>
       <c r="I19" s="19"/>
@@ -1277,19 +1181,19 @@
         <v>8</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D20" s="17" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="E20" s="16" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="F20" s="18">
-        <v>136000</v>
+        <v>80000</v>
       </c>
       <c r="G20" s="18">
-        <v>3400000</v>
+        <v>2000000</v>
       </c>
       <c r="H20" s="19"/>
       <c r="I20" s="19"/>
@@ -1300,19 +1204,19 @@
         <v>8</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D21" s="17" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="E21" s="16" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="F21" s="18">
-        <v>128000</v>
+        <v>160000</v>
       </c>
       <c r="G21" s="18">
-        <v>3200000</v>
+        <v>4000000</v>
       </c>
       <c r="H21" s="19"/>
       <c r="I21" s="19"/>
@@ -1323,19 +1227,19 @@
         <v>8</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="D22" s="17" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="F22" s="18">
-        <v>128000</v>
+        <v>56940</v>
       </c>
       <c r="G22" s="18">
-        <v>3200000</v>
+        <v>1423500</v>
       </c>
       <c r="H22" s="19"/>
       <c r="I22" s="19"/>
@@ -1346,19 +1250,19 @@
         <v>8</v>
       </c>
       <c r="C23" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D23" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="E23" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="D23" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="E23" s="16" t="s">
-        <v>11</v>
-      </c>
       <c r="F23" s="18">
-        <v>80000</v>
+        <v>64000</v>
       </c>
       <c r="G23" s="18">
-        <v>2000000</v>
+        <v>1600000</v>
       </c>
       <c r="H23" s="19"/>
       <c r="I23" s="19"/>
@@ -1369,19 +1273,19 @@
         <v>8</v>
       </c>
       <c r="C24" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="D24" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="E24" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="D24" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="E24" s="16" t="s">
-        <v>12</v>
-      </c>
       <c r="F24" s="18">
-        <v>80000</v>
+        <v>120000</v>
       </c>
       <c r="G24" s="18">
-        <v>2000000</v>
+        <v>3000000</v>
       </c>
       <c r="H24" s="19"/>
       <c r="I24" s="19"/>
@@ -1392,19 +1296,19 @@
         <v>8</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="D25" s="17" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="F25" s="18">
-        <v>60000</v>
+        <v>360000</v>
       </c>
       <c r="G25" s="18">
-        <v>828116</v>
+        <v>9000000</v>
       </c>
       <c r="H25" s="19"/>
       <c r="I25" s="19"/>
@@ -1415,19 +1319,19 @@
         <v>8</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="D26" s="17" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="E26" s="16" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="F26" s="18">
-        <v>60000</v>
+        <v>200000</v>
       </c>
       <c r="G26" s="18">
-        <v>828116</v>
+        <v>5000000</v>
       </c>
       <c r="H26" s="19"/>
       <c r="I26" s="19"/>
@@ -1435,814 +1339,78 @@
     </row>
     <row r="27" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B27" s="15" t="s">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="D27" s="17" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="E27" s="16" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="F27" s="18">
-        <v>120000</v>
+        <v>116000</v>
       </c>
       <c r="G27" s="18">
-        <v>3000000</v>
+        <v>2900000</v>
       </c>
       <c r="H27" s="19"/>
       <c r="I27" s="19"/>
       <c r="J27" s="20"/>
     </row>
     <row r="28" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B28" s="15" t="s">
+      <c r="B28" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="C28" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="D28" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="E28" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="F28" s="18">
-        <v>120000</v>
-      </c>
-      <c r="G28" s="18">
-        <v>3000000</v>
-      </c>
-      <c r="H28" s="19"/>
-      <c r="I28" s="19"/>
-      <c r="J28" s="20"/>
-    </row>
-    <row r="29" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B29" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C29" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="D29" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="E29" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="F29" s="18">
-        <v>20347</v>
-      </c>
-      <c r="G29" s="18">
-        <v>2180000</v>
-      </c>
-      <c r="H29" s="19"/>
-      <c r="I29" s="19"/>
-      <c r="J29" s="20"/>
-    </row>
-    <row r="30" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B30" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C30" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="D30" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="E30" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="F30" s="18">
-        <v>160000</v>
-      </c>
-      <c r="G30" s="18">
-        <v>1092000</v>
-      </c>
-      <c r="H30" s="19"/>
-      <c r="I30" s="19"/>
-      <c r="J30" s="20"/>
-    </row>
-    <row r="31" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B31" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C31" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="D31" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="E31" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="F31" s="18">
-        <v>80000</v>
-      </c>
-      <c r="G31" s="18">
-        <v>1092000</v>
-      </c>
-      <c r="H31" s="19"/>
-      <c r="I31" s="19"/>
-      <c r="J31" s="20"/>
-    </row>
-    <row r="32" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B32" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C32" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="D32" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="E32" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="F32" s="18">
-        <v>56940</v>
-      </c>
-      <c r="G32" s="18">
-        <v>1423500</v>
-      </c>
-      <c r="H32" s="19"/>
-      <c r="I32" s="19"/>
-      <c r="J32" s="20"/>
+      <c r="C28" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="D28" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="E28" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="F28" s="24">
+        <v>53334</v>
+      </c>
+      <c r="G28" s="24">
+        <v>2000000</v>
+      </c>
+      <c r="H28" s="25"/>
+      <c r="I28" s="25"/>
+      <c r="J28" s="26"/>
     </row>
     <row r="33" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B33" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C33" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="D33" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="E33" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="F33" s="18">
-        <v>56940</v>
-      </c>
-      <c r="G33" s="18">
-        <v>1423500</v>
-      </c>
-      <c r="H33" s="19"/>
-      <c r="I33" s="19"/>
-      <c r="J33" s="20"/>
+      <c r="B33" s="32" t="s">
+        <v>49</v>
+      </c>
+      <c r="C33" s="32"/>
+      <c r="H33" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="I33" s="1"/>
+      <c r="J33" s="1"/>
     </row>
     <row r="34" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B34" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C34" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="D34" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="E34" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="F34" s="18">
-        <v>64000</v>
-      </c>
-      <c r="G34" s="18">
-        <v>1600000</v>
-      </c>
-      <c r="H34" s="19"/>
-      <c r="I34" s="19"/>
-      <c r="J34" s="20"/>
-    </row>
-    <row r="35" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B35" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C35" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="D35" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="E35" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="F35" s="18">
-        <v>64000</v>
-      </c>
-      <c r="G35" s="18">
-        <v>1600000</v>
-      </c>
-      <c r="H35" s="19"/>
-      <c r="I35" s="19"/>
-      <c r="J35" s="20"/>
-    </row>
-    <row r="36" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B36" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C36" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="D36" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="E36" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="F36" s="18">
-        <v>120000</v>
-      </c>
-      <c r="G36" s="18">
-        <v>3000000</v>
-      </c>
-      <c r="H36" s="19"/>
-      <c r="I36" s="19"/>
-      <c r="J36" s="20"/>
-    </row>
-    <row r="37" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B37" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C37" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="D37" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="E37" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="F37" s="18">
-        <v>120000</v>
-      </c>
-      <c r="G37" s="18">
-        <v>3000000</v>
-      </c>
-      <c r="H37" s="19"/>
-      <c r="I37" s="19"/>
-      <c r="J37" s="20"/>
-    </row>
-    <row r="38" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B38" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C38" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="D38" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="E38" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="F38" s="18">
-        <v>52800</v>
-      </c>
-      <c r="G38" s="18">
-        <v>1300000</v>
-      </c>
-      <c r="H38" s="19"/>
-      <c r="I38" s="19"/>
-      <c r="J38" s="20"/>
-    </row>
-    <row r="39" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B39" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C39" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="D39" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="E39" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="F39" s="18">
-        <v>144000</v>
-      </c>
-      <c r="G39" s="18">
-        <v>1300000</v>
-      </c>
-      <c r="H39" s="19"/>
-      <c r="I39" s="19"/>
-      <c r="J39" s="20"/>
-    </row>
-    <row r="40" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B40" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C40" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="D40" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="E40" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="F40" s="18">
-        <v>360000</v>
-      </c>
-      <c r="G40" s="18">
-        <v>9000000</v>
-      </c>
-      <c r="H40" s="19"/>
-      <c r="I40" s="19"/>
-      <c r="J40" s="20"/>
-    </row>
-    <row r="41" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B41" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C41" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="D41" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="E41" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="F41" s="18">
-        <v>360000</v>
-      </c>
-      <c r="G41" s="18">
-        <v>9000000</v>
-      </c>
-      <c r="H41" s="19"/>
-      <c r="I41" s="19"/>
-      <c r="J41" s="20"/>
-    </row>
-    <row r="42" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B42" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C42" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="D42" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="E42" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="F42" s="18">
-        <v>63600</v>
-      </c>
-      <c r="G42" s="18">
-        <v>1590000</v>
-      </c>
-      <c r="H42" s="19"/>
-      <c r="I42" s="19"/>
-      <c r="J42" s="20"/>
-    </row>
-    <row r="43" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B43" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C43" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="D43" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="E43" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="F43" s="18">
-        <v>200000</v>
-      </c>
-      <c r="G43" s="18">
-        <v>5000000</v>
-      </c>
-      <c r="H43" s="19"/>
-      <c r="I43" s="19"/>
-      <c r="J43" s="20"/>
-    </row>
-    <row r="44" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B44" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C44" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="D44" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="E44" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="F44" s="18">
-        <v>200000</v>
-      </c>
-      <c r="G44" s="18">
-        <v>5000000</v>
-      </c>
-      <c r="H44" s="19"/>
-      <c r="I44" s="19"/>
-      <c r="J44" s="20"/>
-    </row>
-    <row r="45" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B45" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C45" s="16" t="s">
-        <v>45</v>
-      </c>
-      <c r="D45" s="17" t="s">
-        <v>46</v>
-      </c>
-      <c r="E45" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="F45" s="18">
-        <v>76400</v>
-      </c>
-      <c r="G45" s="18">
-        <v>1910000</v>
-      </c>
-      <c r="H45" s="19"/>
-      <c r="I45" s="19"/>
-      <c r="J45" s="20"/>
-    </row>
-    <row r="46" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B46" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C46" s="16" t="s">
+      <c r="B34" s="32" t="s">
         <v>48</v>
       </c>
-      <c r="D46" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="E46" s="16" t="s">
+      <c r="C34" s="32"/>
+      <c r="H34" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="F46" s="18">
-        <v>1133</v>
-      </c>
-      <c r="G46" s="18">
-        <v>960000</v>
-      </c>
-      <c r="H46" s="19"/>
-      <c r="I46" s="19"/>
-      <c r="J46" s="20"/>
-    </row>
-    <row r="47" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B47" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C47" s="16" t="s">
-        <v>51</v>
-      </c>
-      <c r="D47" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="E47" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="F47" s="18">
-        <v>56940</v>
-      </c>
-      <c r="G47" s="18">
-        <v>1423500</v>
-      </c>
-      <c r="H47" s="19"/>
-      <c r="I47" s="19"/>
-      <c r="J47" s="20"/>
-    </row>
-    <row r="48" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B48" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C48" s="16" t="s">
-        <v>53</v>
-      </c>
-      <c r="D48" s="17" t="s">
-        <v>54</v>
-      </c>
-      <c r="E48" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="F48" s="18">
-        <v>2000</v>
-      </c>
-      <c r="G48" s="18">
-        <v>1500000</v>
-      </c>
-      <c r="H48" s="19"/>
-      <c r="I48" s="19"/>
-      <c r="J48" s="20"/>
-    </row>
-    <row r="49" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B49" s="15" t="s">
-        <v>56</v>
-      </c>
-      <c r="C49" s="16" t="s">
-        <v>57</v>
-      </c>
-      <c r="D49" s="17" t="s">
-        <v>58</v>
-      </c>
-      <c r="E49" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="F49" s="18">
-        <v>116000</v>
-      </c>
-      <c r="G49" s="18">
-        <v>2900000</v>
-      </c>
-      <c r="H49" s="19"/>
-      <c r="I49" s="19"/>
-      <c r="J49" s="20"/>
-    </row>
-    <row r="50" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B50" s="15" t="s">
-        <v>56</v>
-      </c>
-      <c r="C50" s="16" t="s">
-        <v>57</v>
-      </c>
-      <c r="D50" s="17" t="s">
-        <v>58</v>
-      </c>
-      <c r="E50" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="F50" s="18">
-        <v>116000</v>
-      </c>
-      <c r="G50" s="18">
-        <v>2900000</v>
-      </c>
-      <c r="H50" s="19"/>
-      <c r="I50" s="19"/>
-      <c r="J50" s="20"/>
-    </row>
-    <row r="51" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B51" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C51" s="16" t="s">
-        <v>59</v>
-      </c>
-      <c r="D51" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="E51" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="F51" s="18">
-        <v>56940</v>
-      </c>
-      <c r="G51" s="18">
-        <v>905000</v>
-      </c>
-      <c r="H51" s="19"/>
-      <c r="I51" s="19"/>
-      <c r="J51" s="20"/>
-    </row>
-    <row r="52" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B52" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C52" s="16" t="s">
-        <v>59</v>
-      </c>
-      <c r="D52" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="E52" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="F52" s="18">
-        <v>56940</v>
-      </c>
-      <c r="G52" s="18">
-        <v>905000</v>
-      </c>
-      <c r="H52" s="19"/>
-      <c r="I52" s="19"/>
-      <c r="J52" s="20"/>
-    </row>
-    <row r="53" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B53" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C53" s="16" t="s">
-        <v>61</v>
-      </c>
-      <c r="D53" s="17" t="s">
-        <v>62</v>
-      </c>
-      <c r="E53" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="F53" s="18">
-        <v>63600</v>
-      </c>
-      <c r="G53" s="18">
-        <v>1590000</v>
-      </c>
-      <c r="H53" s="19"/>
-      <c r="I53" s="19"/>
-      <c r="J53" s="20"/>
-    </row>
-    <row r="54" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B54" s="15" t="s">
-        <v>56</v>
-      </c>
-      <c r="C54" s="16" t="s">
-        <v>63</v>
-      </c>
-      <c r="D54" s="17" t="s">
-        <v>64</v>
-      </c>
-      <c r="E54" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="F54" s="18">
-        <v>80000</v>
-      </c>
-      <c r="G54" s="18">
-        <v>2000000</v>
-      </c>
-      <c r="H54" s="19"/>
-      <c r="I54" s="19"/>
-      <c r="J54" s="20"/>
-    </row>
-    <row r="55" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B55" s="15" t="s">
-        <v>56</v>
-      </c>
-      <c r="C55" s="16" t="s">
-        <v>63</v>
-      </c>
-      <c r="D55" s="17" t="s">
-        <v>64</v>
-      </c>
-      <c r="E55" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="F55" s="18">
-        <v>80000</v>
-      </c>
-      <c r="G55" s="18">
-        <v>2000000</v>
-      </c>
-      <c r="H55" s="19"/>
-      <c r="I55" s="19"/>
-      <c r="J55" s="20"/>
-    </row>
-    <row r="56" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B56" s="15" t="s">
-        <v>65</v>
-      </c>
-      <c r="C56" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="D56" s="17" t="s">
-        <v>67</v>
-      </c>
-      <c r="E56" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="F56" s="18">
-        <v>80000</v>
-      </c>
-      <c r="G56" s="18">
-        <v>2000000</v>
-      </c>
-      <c r="H56" s="19"/>
-      <c r="I56" s="19"/>
-      <c r="J56" s="20"/>
-    </row>
-    <row r="57" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B57" s="15" t="s">
-        <v>65</v>
-      </c>
-      <c r="C57" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="D57" s="17" t="s">
-        <v>67</v>
-      </c>
-      <c r="E57" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="F57" s="18">
-        <v>80000</v>
-      </c>
-      <c r="G57" s="18">
-        <v>2000000</v>
-      </c>
-      <c r="H57" s="19"/>
-      <c r="I57" s="19"/>
-      <c r="J57" s="20"/>
-    </row>
-    <row r="58" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B58" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C58" s="16" t="s">
-        <v>68</v>
-      </c>
-      <c r="D58" s="17" t="s">
-        <v>69</v>
-      </c>
-      <c r="E58" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="F58" s="18">
-        <v>56940</v>
-      </c>
-      <c r="G58" s="18">
-        <v>1423500</v>
-      </c>
-      <c r="H58" s="19"/>
-      <c r="I58" s="19"/>
-      <c r="J58" s="20"/>
-    </row>
-    <row r="59" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B59" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C59" s="16" t="s">
-        <v>70</v>
-      </c>
-      <c r="D59" s="17" t="s">
-        <v>71</v>
-      </c>
-      <c r="E59" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="F59" s="18">
-        <v>80000</v>
-      </c>
-      <c r="G59" s="18">
-        <v>2000000</v>
-      </c>
-      <c r="H59" s="19"/>
-      <c r="I59" s="19"/>
-      <c r="J59" s="20"/>
-    </row>
-    <row r="60" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B60" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="C60" s="22" t="s">
-        <v>70</v>
-      </c>
-      <c r="D60" s="23" t="s">
-        <v>71</v>
-      </c>
-      <c r="E60" s="22" t="s">
-        <v>12</v>
-      </c>
-      <c r="F60" s="24">
-        <v>18667</v>
-      </c>
-      <c r="G60" s="24">
-        <v>2000000</v>
-      </c>
-      <c r="H60" s="25"/>
-      <c r="I60" s="25"/>
-      <c r="J60" s="26"/>
-    </row>
-    <row r="65" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B65" s="32" t="s">
-        <v>81</v>
-      </c>
-      <c r="C65" s="32"/>
-      <c r="H65" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="I65" s="1"/>
-      <c r="J65" s="1"/>
-    </row>
-    <row r="66" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B66" s="32" t="s">
-        <v>80</v>
-      </c>
-      <c r="C66" s="32"/>
-      <c r="H66" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="I66" s="1"/>
-      <c r="J66" s="1"/>
+      <c r="I34" s="1"/>
+      <c r="J34" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B66:C66"/>
-    <mergeCell ref="B65:C65"/>
-    <mergeCell ref="H66:J66"/>
-    <mergeCell ref="H65:J65"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="H34:J34"/>
+    <mergeCell ref="H33:J33"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="D2:J5"/>
